--- a/APM files/131497050/131497050 EXPORT RPL Cloud Export.xlsx
+++ b/APM files/131497050/131497050 EXPORT RPL Cloud Export.xlsx
@@ -1,40 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/131497050/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156FC47-5D51-8B40-80EF-C77B32B2008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +72,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,32 +407,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>123</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>40069934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>50147204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>50261906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>50262285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>50265539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>50273133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>50278735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>50282846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>50284451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>50285782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>50287201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>50306145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>50313200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>50379618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>58181930</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>58990807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>58990826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>59925957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>59926481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>59940132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>59940668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>60605220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>60605323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>60606556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>60613165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>61508553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>62972368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>62983283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>66536448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>68538179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>68545225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>71591401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>71622142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>71704690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>72555550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>72555980</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>72556746</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>72951688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>72952998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>72954067</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>73407389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>73411117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>73411798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>73772685</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>74017164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>74072477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>74092547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>74649020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>74982510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>74999318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>75000604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>75205299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>77919988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>77949735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>77953698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>78717517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>82663710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>84129772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>74450072</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>89501311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>89501480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>92444920</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>92555286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>92556027</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>92557244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>92557916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>92561274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>92562078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>92606755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>93033758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>93096558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>93670322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>93674178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>93674670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>94736239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>94739488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>95818618</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>99578767</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>99581979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>102732091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>102734240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>102735191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>102735405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>102737665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>102738198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>102739418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>103663293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>103676116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>103685270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>103759411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>103762565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>103762957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>103783999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>107181170</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A10:A95">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($AS10&lt;&gt;"",$AP10="")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>